--- a/Plot01/Scripts/export.xlsx
+++ b/Plot01/Scripts/export.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="19860" windowHeight="8130" activeTab="4"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="19590" windowHeight="7305" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ertert" sheetId="1" r:id="rId1"/>
@@ -19358,7 +19358,7 @@
         <v>237430</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" ht="105">
       <c r="A23">
         <v>73</v>
       </c>
@@ -19399,7 +19399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" ht="105">
       <c r="A24">
         <v>74</v>
       </c>
@@ -19809,7 +19809,7 @@
         <v>218119</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" ht="45">
       <c r="A34">
         <v>159</v>
       </c>
@@ -19850,7 +19850,7 @@
         <v>87538</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" ht="45">
       <c r="A35">
         <v>160</v>
       </c>
@@ -19891,7 +19891,7 @@
         <v>43635</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" ht="45">
       <c r="A36">
         <v>161</v>
       </c>
@@ -19932,7 +19932,7 @@
         <v>74316</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" ht="45">
       <c r="A37">
         <v>162</v>
       </c>
@@ -19973,7 +19973,7 @@
         <v>48747</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" ht="45">
       <c r="A38">
         <v>163</v>
       </c>
@@ -20014,7 +20014,7 @@
         <v>55635</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" ht="60">
       <c r="A39">
         <v>164</v>
       </c>
@@ -20055,7 +20055,7 @@
         <v>16206</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" ht="45">
       <c r="A40">
         <v>165</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>97985</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" ht="45">
       <c r="A41">
         <v>166</v>
       </c>
@@ -21121,7 +21121,7 @@
         <v>190016</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" ht="105">
       <c r="A66">
         <v>103</v>
       </c>
@@ -21408,7 +21408,7 @@
         <v>295445</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" ht="105">
       <c r="A73">
         <v>110</v>
       </c>
@@ -22023,7 +22023,7 @@
         <v>127264</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" ht="105">
       <c r="A88">
         <v>125</v>
       </c>
@@ -23212,7 +23212,7 @@
         <v>174897</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" ht="75">
       <c r="A117">
         <v>167</v>
       </c>
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" ht="60">
       <c r="A118">
         <v>168</v>
       </c>
@@ -23294,7 +23294,7 @@
         <v>63594</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" ht="75">
       <c r="A119">
         <v>169</v>
       </c>
@@ -23335,7 +23335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" ht="45">
       <c r="A120">
         <v>171</v>
       </c>
@@ -23376,7 +23376,7 @@
         <v>27862</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" ht="75">
       <c r="A121">
         <v>175</v>
       </c>
@@ -23417,7 +23417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" ht="75">
       <c r="A122">
         <v>176</v>
       </c>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" ht="165">
       <c r="A123">
         <v>177</v>
       </c>
@@ -23499,7 +23499,7 @@
         <v>734352</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" ht="75">
       <c r="A124">
         <v>178</v>
       </c>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" ht="75">
       <c r="A125">
         <v>179</v>
       </c>
@@ -23581,7 +23581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" ht="409.5">
       <c r="A126">
         <v>189</v>
       </c>
@@ -24688,7 +24688,7 @@
         <v>203764</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" ht="75">
       <c r="A153">
         <v>170</v>
       </c>
@@ -24729,7 +24729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" ht="45">
       <c r="A154">
         <v>180</v>
       </c>
@@ -24770,7 +24770,7 @@
         <v>112064</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" ht="60">
       <c r="A155">
         <v>181</v>
       </c>
@@ -24811,7 +24811,7 @@
         <v>213504</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" ht="30">
       <c r="A156">
         <v>182</v>
       </c>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" ht="45">
       <c r="A157">
         <v>183</v>
       </c>
@@ -26861,7 +26861,7 @@
         <v>177887</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" ht="300">
       <c r="A206">
         <v>172</v>
       </c>
@@ -26902,7 +26902,7 @@
         <v>1221632</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" ht="45">
       <c r="A207">
         <v>173</v>
       </c>
@@ -26943,7 +26943,7 @@
         <v>41981</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" ht="75">
       <c r="A208">
         <v>174</v>
       </c>
@@ -27476,7 +27476,7 @@
         <v>185459</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" ht="409.5">
       <c r="A221">
         <v>221</v>
       </c>
@@ -28501,7 +28501,7 @@
         <v>250341</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" ht="60">
       <c r="A246">
         <v>518</v>
       </c>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" ht="60">
       <c r="A247">
         <v>542</v>
       </c>
@@ -28583,7 +28583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" ht="60">
       <c r="A248">
         <v>543</v>
       </c>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" ht="60">
       <c r="A249">
         <v>544</v>
       </c>
@@ -28665,7 +28665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" ht="60">
       <c r="A250">
         <v>545</v>
       </c>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" ht="60">
       <c r="A251">
         <v>546</v>
       </c>
@@ -28747,7 +28747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" ht="60">
       <c r="A252">
         <v>547</v>
       </c>
@@ -29075,7 +29075,7 @@
         <v>537060</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" ht="90">
       <c r="A260">
         <v>466</v>
       </c>
@@ -29157,7 +29157,7 @@
         <v>274066</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" ht="60">
       <c r="A262">
         <v>513</v>
       </c>
@@ -29280,7 +29280,7 @@
         <v>259347</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" ht="60">
       <c r="A265">
         <v>548</v>
       </c>
@@ -29321,7 +29321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" ht="60">
       <c r="A266">
         <v>549</v>
       </c>
@@ -29362,7 +29362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" ht="60">
       <c r="A267">
         <v>550</v>
       </c>
@@ -29403,7 +29403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" ht="60">
       <c r="A268">
         <v>551</v>
       </c>
@@ -29444,7 +29444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" ht="60">
       <c r="A269">
         <v>552</v>
       </c>
@@ -29649,7 +29649,7 @@
         <v>238557</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" ht="60">
       <c r="A274">
         <v>557</v>
       </c>
@@ -29977,7 +29977,7 @@
         <v>201044</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" ht="60">
       <c r="A282">
         <v>565</v>
       </c>
@@ -30264,7 +30264,7 @@
         <v>165216</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" ht="60">
       <c r="A289">
         <v>572</v>
       </c>
@@ -30346,7 +30346,7 @@
         <v>163414</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" ht="60">
       <c r="A291">
         <v>574</v>
       </c>
@@ -30674,7 +30674,7 @@
         <v>270208</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" ht="90">
       <c r="A299">
         <v>259</v>
       </c>
@@ -31576,7 +31576,7 @@
         <v>152568</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" ht="45">
       <c r="A321">
         <v>363</v>
       </c>
@@ -31617,7 +31617,7 @@
         <v>52717</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" ht="45">
       <c r="A322">
         <v>364</v>
       </c>
@@ -31658,7 +31658,7 @@
         <v>69850</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" ht="45">
       <c r="A323">
         <v>365</v>
       </c>
@@ -31822,7 +31822,7 @@
         <v>377145</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" ht="45">
       <c r="A327">
         <v>400</v>
       </c>
@@ -32355,7 +32355,7 @@
         <v>307373</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" ht="45">
       <c r="A340">
         <v>225</v>
       </c>
@@ -33011,7 +33011,7 @@
         <v>195595</v>
       </c>
     </row>
-    <row r="356" spans="1:13">
+    <row r="356" spans="1:13" ht="60">
       <c r="A356">
         <v>321</v>
       </c>
@@ -33052,7 +33052,7 @@
         <v>131818</v>
       </c>
     </row>
-    <row r="357" spans="1:13">
+    <row r="357" spans="1:13" ht="45">
       <c r="A357">
         <v>338</v>
       </c>
@@ -33872,7 +33872,7 @@
         <v>4043</v>
       </c>
     </row>
-    <row r="377" spans="1:13">
+    <row r="377" spans="1:13" ht="45">
       <c r="A377">
         <v>427</v>
       </c>
@@ -34241,7 +34241,7 @@
         <v>225374</v>
       </c>
     </row>
-    <row r="386" spans="1:13">
+    <row r="386" spans="1:13" ht="45">
       <c r="A386">
         <v>437</v>
       </c>
@@ -34323,7 +34323,7 @@
         <v>217816</v>
       </c>
     </row>
-    <row r="388" spans="1:13">
+    <row r="388" spans="1:13" ht="45">
       <c r="A388">
         <v>271</v>
       </c>
@@ -34364,7 +34364,7 @@
         <v>77646</v>
       </c>
     </row>
-    <row r="389" spans="1:13">
+    <row r="389" spans="1:13" ht="45">
       <c r="A389">
         <v>274</v>
       </c>
@@ -35758,7 +35758,7 @@
         <v>254161</v>
       </c>
     </row>
-    <row r="423" spans="1:13">
+    <row r="423" spans="1:13" ht="45">
       <c r="A423">
         <v>511</v>
       </c>
@@ -35799,7 +35799,7 @@
         <v>65782</v>
       </c>
     </row>
-    <row r="424" spans="1:13">
+    <row r="424" spans="1:13" ht="60">
       <c r="A424">
         <v>512</v>
       </c>
@@ -35840,7 +35840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:13">
+    <row r="425" spans="1:13" ht="60">
       <c r="A425">
         <v>514</v>
       </c>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:13">
+    <row r="426" spans="1:13" ht="60">
       <c r="A426">
         <v>515</v>
       </c>
@@ -35922,7 +35922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:13">
+    <row r="427" spans="1:13" ht="60">
       <c r="A427">
         <v>517</v>
       </c>
@@ -36209,7 +36209,7 @@
         <v>328981</v>
       </c>
     </row>
-    <row r="434" spans="1:13">
+    <row r="434" spans="1:13" ht="45">
       <c r="A434">
         <v>224</v>
       </c>
@@ -37275,7 +37275,7 @@
         <v>244046</v>
       </c>
     </row>
-    <row r="460" spans="1:13">
+    <row r="460" spans="1:13" ht="60">
       <c r="A460">
         <v>516</v>
       </c>
@@ -37316,7 +37316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:13">
+    <row r="461" spans="1:13" ht="60">
       <c r="A461">
         <v>519</v>
       </c>
@@ -37480,7 +37480,7 @@
         <v>278674</v>
       </c>
     </row>
-    <row r="465" spans="1:13">
+    <row r="465" spans="1:13" ht="60">
       <c r="A465">
         <v>529</v>
       </c>
@@ -37644,7 +37644,7 @@
         <v>160178</v>
       </c>
     </row>
-    <row r="469" spans="1:13">
+    <row r="469" spans="1:13" ht="60">
       <c r="A469">
         <v>535</v>
       </c>
@@ -37767,7 +37767,7 @@
         <v>264342</v>
       </c>
     </row>
-    <row r="472" spans="1:13">
+    <row r="472" spans="1:13" ht="60">
       <c r="A472">
         <v>538</v>
       </c>
@@ -37808,7 +37808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:13">
+    <row r="473" spans="1:13" ht="60">
       <c r="A473">
         <v>539</v>
       </c>
@@ -37890,7 +37890,7 @@
         <v>633215</v>
       </c>
     </row>
-    <row r="475" spans="1:13">
+    <row r="475" spans="1:13" ht="60">
       <c r="A475">
         <v>541</v>
       </c>
@@ -38300,7 +38300,7 @@
         <v>163377</v>
       </c>
     </row>
-    <row r="485" spans="1:13">
+    <row r="485" spans="1:13" ht="45">
       <c r="A485">
         <v>282</v>
       </c>
@@ -39899,7 +39899,7 @@
         <v>763582</v>
       </c>
     </row>
-    <row r="524" spans="1:13">
+    <row r="524" spans="1:13" ht="45">
       <c r="A524">
         <v>488</v>
       </c>
@@ -54608,7 +54608,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="1239" spans="1:4">
+    <row r="1239" spans="1:4" ht="409.5">
       <c r="A1239" s="6" t="s">
         <v>1291</v>
       </c>
@@ -54618,7 +54618,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="1241" spans="1:4">
+    <row r="1241" spans="1:4" ht="409.5">
       <c r="A1241" s="6" t="s">
         <v>1292</v>
       </c>
@@ -54628,7 +54628,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="1243" spans="1:4">
+    <row r="1243" spans="1:4" ht="409.5">
       <c r="A1243" s="6" t="s">
         <v>1293</v>
       </c>
@@ -54638,7 +54638,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="1245" spans="1:4">
+    <row r="1245" spans="1:4" ht="409.5">
       <c r="A1245" s="6" t="s">
         <v>1294</v>
       </c>
@@ -54648,7 +54648,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="1247" spans="1:4">
+    <row r="1247" spans="1:4" ht="409.5">
       <c r="A1247" s="6" t="s">
         <v>1295</v>
       </c>
@@ -54663,7 +54663,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="1250" spans="1:1">
+    <row r="1250" spans="1:1" ht="409.5">
       <c r="A1250" s="6" t="s">
         <v>1297</v>
       </c>
@@ -54673,7 +54673,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="1252" spans="1:1">
+    <row r="1252" spans="1:1" ht="409.5">
       <c r="A1252" s="6" t="s">
         <v>1298</v>
       </c>
@@ -54683,7 +54683,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="1254" spans="1:1">
+    <row r="1254" spans="1:1" ht="409.5">
       <c r="A1254" s="6" t="s">
         <v>1299</v>
       </c>
@@ -54693,7 +54693,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="1256" spans="1:1">
+    <row r="1256" spans="1:1" ht="409.5">
       <c r="A1256" s="6" t="s">
         <v>1300</v>
       </c>
@@ -54707,12 +54707,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D713"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A242" workbookViewId="0">
-      <selection activeCell="H251" sqref="H251"/>
+    <sheetView tabSelected="1" topLeftCell="A655" workbookViewId="0">
+      <selection activeCell="H236" sqref="H236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -61545,7 +61546,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" ht="315">
       <c r="A645" s="6" t="s">
         <v>1324</v>
       </c>
@@ -61565,7 +61566,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" ht="345">
       <c r="A649" s="6" t="s">
         <v>1326</v>
       </c>
@@ -61575,7 +61576,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" ht="409.5">
       <c r="A651" s="6" t="s">
         <v>1327</v>
       </c>
@@ -61670,7 +61671,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="670" spans="1:1">
+    <row r="670" spans="1:1" ht="345">
       <c r="A670" s="6" t="s">
         <v>1344</v>
       </c>
@@ -61680,7 +61681,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="672" spans="1:1">
+    <row r="672" spans="1:1" ht="315">
       <c r="A672" s="6" t="s">
         <v>1345</v>
       </c>
@@ -61700,7 +61701,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="676" spans="1:1">
+    <row r="676" spans="1:1" ht="409.5">
       <c r="A676" s="6" t="s">
         <v>1347</v>
       </c>
@@ -61710,7 +61711,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="678" spans="1:1">
+    <row r="678" spans="1:1" ht="345">
       <c r="A678" s="6" t="s">
         <v>1291</v>
       </c>
@@ -61720,7 +61721,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="680" spans="1:1">
+    <row r="680" spans="1:1" ht="345">
       <c r="A680" s="6" t="s">
         <v>1292</v>
       </c>
@@ -61730,7 +61731,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="682" spans="1:1">
+    <row r="682" spans="1:1" ht="315">
       <c r="A682" s="6" t="s">
         <v>1293</v>
       </c>
@@ -61740,7 +61741,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="684" spans="1:1">
+    <row r="684" spans="1:1" ht="315">
       <c r="A684" s="6" t="s">
         <v>1294</v>
       </c>
@@ -61750,7 +61751,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="686" spans="1:1">
+    <row r="686" spans="1:1" ht="405">
       <c r="A686" s="6" t="s">
         <v>1295</v>
       </c>
@@ -61765,7 +61766,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="689" spans="1:1">
+    <row r="689" spans="1:1" ht="330">
       <c r="A689" s="6" t="s">
         <v>1297</v>
       </c>
@@ -61775,7 +61776,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="691" spans="1:1">
+    <row r="691" spans="1:1" ht="345">
       <c r="A691" s="6" t="s">
         <v>1298</v>
       </c>
@@ -61785,7 +61786,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="693" spans="1:1">
+    <row r="693" spans="1:1" ht="390">
       <c r="A693" s="6" t="s">
         <v>1299</v>
       </c>
@@ -61795,7 +61796,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="695" spans="1:1">
+    <row r="695" spans="1:1" ht="409.5">
       <c r="A695" s="6" t="s">
         <v>1348</v>
       </c>

--- a/Plot01/Scripts/export.xlsx
+++ b/Plot01/Scripts/export.xlsx
@@ -4893,9 +4893,9 @@
   </sheetPr>
   <dimension ref="A1:S252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="15"/>
@@ -4908,7 +4908,9 @@
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
     <col min="9" max="9" width="7.5703125" customWidth="1"/>
-    <col min="10" max="13" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="27" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -18419,6 +18421,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18426,7 +18429,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -18437,6 +18442,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -61546,7 +61552,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="315">
+    <row r="645" spans="1:4" ht="75">
       <c r="A645" s="6" t="s">
         <v>1324</v>
       </c>
@@ -61566,7 +61572,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="345">
+    <row r="649" spans="1:4" ht="75">
       <c r="A649" s="6" t="s">
         <v>1326</v>
       </c>
@@ -61576,7 +61582,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="409.5">
+    <row r="651" spans="1:4" ht="90">
       <c r="A651" s="6" t="s">
         <v>1327</v>
       </c>
@@ -61671,7 +61677,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="670" spans="1:1" ht="345">
+    <row r="670" spans="1:1" ht="75">
       <c r="A670" s="6" t="s">
         <v>1344</v>
       </c>
@@ -61681,7 +61687,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="672" spans="1:1" ht="315">
+    <row r="672" spans="1:1" ht="75">
       <c r="A672" s="6" t="s">
         <v>1345</v>
       </c>
@@ -61711,7 +61717,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="678" spans="1:1" ht="345">
+    <row r="678" spans="1:1" ht="75">
       <c r="A678" s="6" t="s">
         <v>1291</v>
       </c>
@@ -61721,7 +61727,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="680" spans="1:1" ht="345">
+    <row r="680" spans="1:1" ht="75">
       <c r="A680" s="6" t="s">
         <v>1292</v>
       </c>
@@ -61731,7 +61737,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="682" spans="1:1" ht="315">
+    <row r="682" spans="1:1" ht="75">
       <c r="A682" s="6" t="s">
         <v>1293</v>
       </c>
@@ -61741,7 +61747,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="684" spans="1:1" ht="315">
+    <row r="684" spans="1:1" ht="75">
       <c r="A684" s="6" t="s">
         <v>1294</v>
       </c>
@@ -61751,7 +61757,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="686" spans="1:1" ht="405">
+    <row r="686" spans="1:1" ht="90">
       <c r="A686" s="6" t="s">
         <v>1295</v>
       </c>
@@ -61766,7 +61772,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="689" spans="1:1" ht="330">
+    <row r="689" spans="1:1" ht="75">
       <c r="A689" s="6" t="s">
         <v>1297</v>
       </c>
@@ -61776,7 +61782,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="691" spans="1:1" ht="345">
+    <row r="691" spans="1:1" ht="75">
       <c r="A691" s="6" t="s">
         <v>1298</v>
       </c>
@@ -61786,7 +61792,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="693" spans="1:1" ht="390">
+    <row r="693" spans="1:1" ht="90">
       <c r="A693" s="6" t="s">
         <v>1299</v>
       </c>
@@ -61796,7 +61802,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="695" spans="1:1" ht="409.5">
+    <row r="695" spans="1:1" ht="180">
       <c r="A695" s="6" t="s">
         <v>1348</v>
       </c>
